--- a/biology/Histoire de la zoologie et de la botanique/Auguste-Henri_de_Coincy/Auguste-Henri_de_Coincy.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Auguste-Henri_de_Coincy/Auguste-Henri_de_Coincy.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Auguste-Henri de Coincy (né Auguste-Henri Cornut de la Fontaine de Coincy ; 1837-1903) est un botaniste français.
 </t>
@@ -511,17 +523,19 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Auguste-Henri de Coincy est né le 1er avril 1837 à Lille[2]. Après de brillantes études au lycée de Sens qu'il achève en 1859, ce n'est que vers 1870 qu'il se consacre à l'étude de la botanique. Il fait de fréquents voyages en Espagne et en rapporte les cinq tomes d'Ecloga plantarum Hispanicarum (recueil des plantes trouvées en Espagne) publiée de 1893 à 1901.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Auguste-Henri de Coincy est né le 1er avril 1837 à Lille. Après de brillantes études au lycée de Sens qu'il achève en 1859, ce n'est que vers 1870 qu'il se consacre à l'étude de la botanique. Il fait de fréquents voyages en Espagne et en rapporte les cinq tomes d'Ecloga plantarum Hispanicarum (recueil des plantes trouvées en Espagne) publiée de 1893 à 1901.
 Entre 1889 et 1890, il visite le parc naturel du massif du Montgo, y décrivant Carduncellus dianius (ca) et Centaurea rouyi.
 Il collecte également des spécimens de la flore du Maroc et ses observations en Tripolitaine jusqu’à la côte occidentale du Maroc l’amènent à écrire en 1902 plusieurs articles concernant le genre botanique Echium.
-En tant que taxonomiste, il décrit le genre Rouya (famille des Apiacées)[3].
-Il est membre de la Société botanique de France[4].
-Le Prix de Coincy, pour des travaux de recherche en taxonomie, a été institué en son hommage un an après sa mort, grâce à un legs de 30 000 francs[5].
+En tant que taxonomiste, il décrit le genre Rouya (famille des Apiacées).
+Il est membre de la Société botanique de France.
+Le Prix de Coincy, pour des travaux de recherche en taxonomie, a été institué en son hommage un an après sa mort, grâce à un legs de 30 000 francs.
 Le genre Coincya Rouy, de la famille des Brassicaceae, a été nommé en son honneur par Georges Rouy.
-Son neveu Henri de Coincy (1878-1951) fut un conservateur des Eaux et Forêts[6]
-Il est décédé au château du Courtoiseau sur Triguères, Loiret[5].
+Son neveu Henri de Coincy (1878-1951) fut un conservateur des Eaux et Forêts
+Il est décédé au château du Courtoiseau sur Triguères, Loiret.
 </t>
         </is>
       </c>
@@ -550,7 +564,9 @@
           <t>Publications</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Auguste-Henri de Coincy, « Burgos au point de vue botanique », Bulletin de l'Herbier Boissier, t. 6,‎ 1898, p. 822-831 (lire en ligne).
 Auguste-Henri de Coincy, Ecloga plantarum Hispanicarum [« Recueil des plantes (trouvées) en Espagne »], Paris, G. Masson, [(1e part.) 1893, 10 planches], [(2e part.) 1895, 12 planches], [(3e part.) 1897, 12 planches], [(4e part.) 1899, 11 planches], [(5e et dernière part.) 1901, 14 planches].
